--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3088.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3088.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226903811541689</v>
+        <v>1.261679768562317</v>
       </c>
       <c r="B1">
-        <v>2.649729277829933</v>
+        <v>2.331920862197876</v>
       </c>
       <c r="C1">
-        <v>3.744317197999374</v>
+        <v>4.494894027709961</v>
       </c>
       <c r="D1">
-        <v>4.133011902893679</v>
+        <v>2.843429565429688</v>
       </c>
       <c r="E1">
-        <v>1.19242724469779</v>
+        <v>1.355108499526978</v>
       </c>
     </row>
   </sheetData>
